--- a/minutes/CWE-CAPEC Working Group Members List.xlsx
+++ b/minutes/CWE-CAPEC Working Group Members List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://synopsys-my.sharepoint.com/personal/acron_synopsys_com/Documents/Documents/test/Security/REST API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{1E35CAA3-04A6-4021-8DE6-9C7DCD81A0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54210CA4-F600-492A-8497-1D77C9F64A1A}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{D8DE7BD1-A43D-F349-9115-672DF5E72D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2C5323-D7FB-473D-B790-9D73BFDB5ECB}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="0" windowWidth="14955" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14843" yWindow="0" windowWidth="13949" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>#</t>
   </si>
@@ -159,9 +159,6 @@
     <t>gorav.singal@gmail.com</t>
   </si>
   <si>
-    <t>Chairing</t>
-  </si>
-  <si>
     <t>khampson@synopsys.com</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>DuncanWilliamD@JohnDeere.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Raghudeep Kannavara</t>
   </si>
   <si>
@@ -451,13 +445,34 @@
   </si>
   <si>
     <t>Cyware</t>
+  </si>
+  <si>
+    <t>Joshua Williams</t>
+  </si>
+  <si>
+    <t>j.williams@owasp.org</t>
+  </si>
+  <si>
+    <t>OWASP</t>
+  </si>
+  <si>
+    <t>Robert Jamison</t>
+  </si>
+  <si>
+    <t>robert.jamison2@gmail.com</t>
+  </si>
+  <si>
+    <t>kotlin</t>
+  </si>
+  <si>
+    <t>Army National Guard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +496,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,8 +518,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -519,12 +547,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,14 +623,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,6 +652,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,28 +921,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="AL39" sqref="AL39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="28" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="0.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="31" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="47" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" customWidth="1"/>
+    <col min="4" max="4" width="24.73046875" customWidth="1"/>
+    <col min="5" max="5" width="39.86328125" customWidth="1"/>
+    <col min="6" max="6" width="34.86328125" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="28" width="11.73046875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="0.1328125" hidden="1" customWidth="1"/>
+    <col min="30" max="37" width="12.73046875" hidden="1" customWidth="1"/>
+    <col min="38" max="47" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -969,8 +1039,26 @@
       <c r="AF1" s="9">
         <v>44910</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="9">
+        <v>44917</v>
+      </c>
+      <c r="AH1" s="9">
+        <v>44931</v>
+      </c>
+      <c r="AI1" s="22">
+        <v>44945</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>44959</v>
+      </c>
+      <c r="AK1" s="9">
+        <v>44998</v>
+      </c>
+      <c r="AL1" s="9">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -986,9 +1074,7 @@
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="4">
         <v>1</v>
       </c>
@@ -1059,8 +1145,24 @@
       <c r="AF2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1068,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
@@ -1115,8 +1217,14 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1124,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="4"/>
@@ -1187,8 +1295,20 @@
       <c r="AF4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1196,16 +1316,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1253,8 +1373,14 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1262,16 +1388,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1309,8 +1435,16 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1318,16 +1452,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1373,13 +1507,19 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -1391,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1447,8 +1587,18 @@
       <c r="AF8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1465,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -1531,8 +1681,18 @@
         <v>1</v>
       </c>
       <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1540,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -1581,8 +1741,14 @@
         <v>1</v>
       </c>
       <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1590,13 +1756,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -1629,8 +1795,14 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1638,16 +1810,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -1717,8 +1889,20 @@
       <c r="AF12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1726,13 +1910,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -1761,8 +1945,14 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1770,13 +1960,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1805,8 +1995,14 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1823,7 +2019,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1887,8 +2083,14 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1905,7 +2107,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -1941,8 +2143,14 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1950,16 +2158,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="4">
         <v>1</v>
@@ -2001,8 +2209,14 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2045,22 +2259,28 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -2089,8 +2309,20 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2098,11 +2330,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -2131,25 +2363,31 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:32" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>83</v>
+      <c r="F21" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -2179,8 +2417,16 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2188,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>32</v>
@@ -2197,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -2218,6 +2464,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
+      <c r="X22" s="5"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -2226,8 +2473,14 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:32" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" s="18" customFormat="1" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2235,167 +2488,153 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
-        <v>1</v>
-      </c>
-      <c r="L23" s="16">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
-      <c r="O23" s="16">
-        <v>1</v>
-      </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16">
-        <v>1</v>
-      </c>
-      <c r="R23" s="16">
-        <v>1</v>
-      </c>
-      <c r="S23" s="16">
-        <v>1</v>
-      </c>
-      <c r="T23" s="16">
-        <v>1</v>
-      </c>
-      <c r="U23" s="16">
-        <v>1</v>
-      </c>
-      <c r="V23" s="16">
-        <v>1</v>
-      </c>
-      <c r="W23" s="16">
-        <v>1</v>
-      </c>
-      <c r="X23" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:38" ht="28.9" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <v>1</v>
-      </c>
-      <c r="T24" s="4">
-        <v>1</v>
-      </c>
-      <c r="U24" s="4">
-        <v>1</v>
-      </c>
-      <c r="V24" s="4">
-        <v>1</v>
-      </c>
-      <c r="W24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="16">
+        <v>1</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16">
+        <v>1</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1</v>
+      </c>
+      <c r="S24" s="16">
+        <v>1</v>
+      </c>
+      <c r="T24" s="16">
+        <v>1</v>
+      </c>
+      <c r="U24" s="16">
+        <v>1</v>
+      </c>
+      <c r="V24" s="16">
+        <v>1</v>
+      </c>
+      <c r="W24" s="16">
+        <v>1</v>
+      </c>
+      <c r="X24" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="16"/>
+    </row>
+    <row r="25" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2403,13 +2642,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
@@ -2418,30 +2657,74 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1</v>
+      </c>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="26" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2449,13 +2732,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
@@ -2465,22 +2748,18 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
-        <v>1</v>
-      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4">
-        <v>1</v>
-      </c>
+      <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -2490,152 +2769,186 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+    </row>
+    <row r="27" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="4">
         <v>1</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
-      <c r="T27" s="4">
-        <v>1</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1</v>
-      </c>
-      <c r="V27" s="4">
-        <v>1</v>
-      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
       <c r="W27" s="4">
         <v>1</v>
       </c>
-      <c r="X27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+    </row>
+    <row r="28" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
+      <c r="B28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2643,17 +2956,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2678,8 +2993,14 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2687,22 +3008,18 @@
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2726,48 +3043,42 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+    </row>
+    <row r="31" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>92</v>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
-      <c r="L31" s="4">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4">
-        <v>1</v>
-      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2786,8 +3097,14 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+    </row>
+    <row r="32" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2795,23 +3112,39 @@
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2830,78 +3163,64 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+    </row>
+    <row r="33" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>48</v>
+      <c r="C33" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1</v>
-      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4">
-        <v>1</v>
-      </c>
+      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>1</v>
-      </c>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4">
-        <v>1</v>
-      </c>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+    </row>
+    <row r="34" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2909,16 +3228,16 @@
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -2927,51 +3246,59 @@
         <v>1</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
+      <c r="J34" s="4"/>
       <c r="K34" s="4">
         <v>1</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="4">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4">
         <v>1</v>
       </c>
-      <c r="R34" s="4"/>
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4">
         <v>1</v>
       </c>
-      <c r="V34" s="4">
-        <v>1</v>
-      </c>
+      <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="Y34" s="4">
+        <v>1</v>
+      </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4">
         <v>1</v>
       </c>
-      <c r="AB34" s="4"/>
+      <c r="AB34" s="4">
+        <v>1</v>
+      </c>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
+      <c r="AD34" s="4">
+        <v>1</v>
+      </c>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+    </row>
+    <row r="35" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2979,16 +3306,16 @@
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2996,10 +3323,10 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
       <c r="K35" s="4">
         <v>1</v>
       </c>
@@ -3015,53 +3342,39 @@
       <c r="O35" s="4">
         <v>1</v>
       </c>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
+      <c r="P35" s="4"/>
       <c r="Q35" s="4">
         <v>1</v>
       </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="4">
-        <v>1</v>
-      </c>
-      <c r="T35" s="4">
-        <v>1</v>
-      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
       <c r="U35" s="4">
         <v>1</v>
       </c>
       <c r="V35" s="4">
         <v>1</v>
       </c>
-      <c r="W35" s="4">
-        <v>1</v>
-      </c>
+      <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
       <c r="AA35" s="4">
         <v>1</v>
       </c>
-      <c r="AB35" s="4">
-        <v>1</v>
-      </c>
+      <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+    </row>
+    <row r="36" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3069,16 +3382,16 @@
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -3086,36 +3399,90 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
       <c r="L36" s="4">
         <v>1</v>
       </c>
-      <c r="M36" s="4"/>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
       <c r="N36" s="4">
         <v>1</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1</v>
+      </c>
       <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
+      <c r="Y36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>1</v>
+      </c>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3123,81 +3490,53 @@
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1</v>
-      </c>
-      <c r="M37" s="4">
-        <v>1</v>
-      </c>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>1</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4">
-        <v>1</v>
-      </c>
-      <c r="T37" s="4">
-        <v>1</v>
-      </c>
-      <c r="U37" s="4">
-        <v>1</v>
-      </c>
-      <c r="V37" s="4">
-        <v>1</v>
-      </c>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3205,27 +3544,33 @@
         <v>12</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
       <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -3244,8 +3589,14 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+    </row>
+    <row r="39" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3253,16 +3604,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -3285,9 +3636,7 @@
       <c r="M39" s="4">
         <v>1</v>
       </c>
-      <c r="N39" s="4">
-        <v>1</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4">
         <v>1</v>
       </c>
@@ -3297,9 +3646,7 @@
       <c r="Q39" s="4">
         <v>1</v>
       </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
+      <c r="R39" s="4"/>
       <c r="S39" s="4">
         <v>1</v>
       </c>
@@ -3312,13 +3659,11 @@
       <c r="V39" s="4">
         <v>1</v>
       </c>
-      <c r="W39" s="4">
-        <v>1</v>
-      </c>
-      <c r="X39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4">
+        <v>1</v>
+      </c>
       <c r="Z39" s="4">
         <v>1</v>
       </c>
@@ -3328,18 +3673,18 @@
       <c r="AB39" s="4">
         <v>1</v>
       </c>
-      <c r="AC39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="4">
-        <v>1</v>
-      </c>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+    </row>
+    <row r="40" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3347,75 +3692,53 @@
         <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4">
-        <v>1</v>
-      </c>
-      <c r="V40" s="4">
-        <v>1</v>
-      </c>
-      <c r="W40" s="4">
-        <v>1</v>
-      </c>
-      <c r="X40" s="4">
-        <v>1</v>
-      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>1</v>
-      </c>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4">
-        <v>1</v>
-      </c>
+      <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+    </row>
+    <row r="41" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3423,84 +3746,286 @@
         <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>1</v>
+      </c>
+      <c r="R42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
+      <c r="W42" s="4">
+        <v>1</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4">
-        <v>1</v>
-      </c>
-      <c r="N41" s="4">
-        <v>1</v>
-      </c>
-      <c r="O41" s="4">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>1</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1</v>
-      </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="U41" s="4">
-        <v>1</v>
-      </c>
-      <c r="V41" s="4">
-        <v>1</v>
-      </c>
-      <c r="W41" s="4">
-        <v>1</v>
-      </c>
-      <c r="X41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AD42" s="1">
-        <f>SUM(AD2:AD41)</f>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+    </row>
+    <row r="44" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AD44" s="1">
+        <f t="shared" ref="AD44:AK44" si="0">SUM(AD2:AD43)</f>
         <v>11</v>
       </c>
-      <c r="AE42" s="1">
-        <f>SUM(AE2:AE41)</f>
+      <c r="AE44" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AF42" s="1">
-        <f>SUM(AF2:AF41)</f>
+      <c r="AG44" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AH44" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AI44" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AJ44" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AL44" s="1">
+        <f t="shared" ref="AL44" si="1">SUM(AL2:AL43)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3509,47 +4034,49 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3A40E9B3-975B-4A22-A01A-2929B76D9DB0}"/>
-    <hyperlink ref="E30" r:id="rId2" xr:uid="{B8E8CEB7-639C-464D-B4BD-0FD1AAC91DC3}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{B8E8CEB7-639C-464D-B4BD-0FD1AAC91DC3}"/>
     <hyperlink ref="E21" r:id="rId3" xr:uid="{8E0DCCB4-2EB9-4690-957A-8942839B1AC3}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{64B3218C-D6F9-4BFF-9464-02F447006117}"/>
     <hyperlink ref="E16" r:id="rId5" xr:uid="{761D9F86-8A32-4995-A776-BEF9A380F107}"/>
-    <hyperlink ref="E25" r:id="rId6" xr:uid="{E9BA05BC-218A-47BB-8865-F740205FF636}"/>
-    <hyperlink ref="E38" r:id="rId7" xr:uid="{9BFC7C3E-506E-45CF-BF0E-1F115EAC1665}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{E9BA05BC-218A-47BB-8865-F740205FF636}"/>
+    <hyperlink ref="E40" r:id="rId7" xr:uid="{9BFC7C3E-506E-45CF-BF0E-1F115EAC1665}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{1508CA9E-476E-4BCF-BEC8-25109D3A4E4D}"/>
     <hyperlink ref="E22" r:id="rId9" xr:uid="{6CE77D11-7C33-47A9-9779-69919C645B27}"/>
     <hyperlink ref="E15" r:id="rId10" xr:uid="{DA9AF26B-B227-451E-9B5C-19F1C480346E}"/>
-    <hyperlink ref="E34" r:id="rId11" xr:uid="{1B4E1BCC-B43B-44E2-A68E-473A0F4E43DE}"/>
+    <hyperlink ref="E35" r:id="rId11" xr:uid="{1B4E1BCC-B43B-44E2-A68E-473A0F4E43DE}"/>
     <hyperlink ref="E18" r:id="rId12" xr:uid="{F37D13E7-083E-4631-911C-3143474D3CA0}"/>
     <hyperlink ref="E5" r:id="rId13" xr:uid="{EE3A77A0-650D-4EE8-AC9D-C56FE8464EA7}"/>
-    <hyperlink ref="E23" r:id="rId14" xr:uid="{8932E0F1-FF9B-47A5-983F-9F7F7191C3D9}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{8932E0F1-FF9B-47A5-983F-9F7F7191C3D9}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{F5F6BB57-66E4-4759-A8CF-E2462AE3990C}"/>
     <hyperlink ref="E7" r:id="rId16" xr:uid="{EB20DC93-5C05-4FA8-931F-8E3CC3171948}"/>
     <hyperlink ref="E17" r:id="rId17" xr:uid="{35540A37-995B-4579-8938-A991261D3FDC}"/>
-    <hyperlink ref="E37" r:id="rId18" display="mailto:stas@attackforge.com" xr:uid="{687048E8-5654-4BF2-B4FA-C7015AB50BA5}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{F3E5BD5B-1A7E-46AF-8F87-45C9A86C610D}"/>
-    <hyperlink ref="E27" r:id="rId20" display="mailto:lmalinowski@mitre.org" xr:uid="{AE0F414D-B053-44A9-9991-78ADD236E9D5}"/>
+    <hyperlink ref="E39" r:id="rId18" display="mailto:stas@attackforge.com" xr:uid="{687048E8-5654-4BF2-B4FA-C7015AB50BA5}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{F3E5BD5B-1A7E-46AF-8F87-45C9A86C610D}"/>
+    <hyperlink ref="E28" r:id="rId20" display="mailto:lmalinowski@mitre.org" xr:uid="{AE0F414D-B053-44A9-9991-78ADD236E9D5}"/>
     <hyperlink ref="E12" r:id="rId21" display="mailto:drothenberg@mitre.org" xr:uid="{507530C1-D5FD-4724-9331-3C553C3BB31B}"/>
-    <hyperlink ref="E35" r:id="rId22" display="mailto:rpiazza@mitre.org" xr:uid="{25BD7ADF-ED49-46EA-A3BC-63168D5345C3}"/>
+    <hyperlink ref="E36" r:id="rId22" display="mailto:rpiazza@mitre.org" xr:uid="{25BD7ADF-ED49-46EA-A3BC-63168D5345C3}"/>
     <hyperlink ref="E3" r:id="rId23" display="mailto:asummers@mitre.org" xr:uid="{E4AD2FCF-427B-4508-A27A-3DF923D61683}"/>
-    <hyperlink ref="E36" r:id="rId24" xr:uid="{00E620E7-FF75-4373-BFE7-3DE357B99888}"/>
-    <hyperlink ref="E31" r:id="rId25" xr:uid="{60AD0D9D-119C-4871-885C-68E87FC4164B}"/>
-    <hyperlink ref="E39" r:id="rId26" display="mailto:coley@mitre.org" xr:uid="{D03DFBD7-E852-46D4-A96A-8614CB454311}"/>
-    <hyperlink ref="E24" r:id="rId27" xr:uid="{6A63D541-7701-47BB-B1A1-412C969B71AE}"/>
+    <hyperlink ref="E38" r:id="rId24" xr:uid="{00E620E7-FF75-4373-BFE7-3DE357B99888}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{60AD0D9D-119C-4871-885C-68E87FC4164B}"/>
+    <hyperlink ref="E41" r:id="rId26" display="mailto:coley@mitre.org" xr:uid="{D03DFBD7-E852-46D4-A96A-8614CB454311}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{6A63D541-7701-47BB-B1A1-412C969B71AE}"/>
     <hyperlink ref="E4" r:id="rId28" xr:uid="{519D406F-460A-4210-A2B9-4F7BFF5603D6}"/>
-    <hyperlink ref="E26" r:id="rId29" xr:uid="{33684171-772E-4132-9397-9121ADB4BC86}"/>
+    <hyperlink ref="E27" r:id="rId29" xr:uid="{33684171-772E-4132-9397-9121ADB4BC86}"/>
     <hyperlink ref="E6" r:id="rId30" xr:uid="{F59E2981-E1D2-4146-B146-AEF53B303641}"/>
     <hyperlink ref="E14" r:id="rId31" xr:uid="{17CED5BC-AC23-4CDD-903F-CBEF0B05C0A1}"/>
-    <hyperlink ref="E40" r:id="rId32" xr:uid="{3AE0A9E0-59DE-43A4-8826-2F24513C9DC0}"/>
-    <hyperlink ref="E41" r:id="rId33" xr:uid="{49AFF96A-B740-4608-8C2E-21323B47C9C2}"/>
+    <hyperlink ref="E42" r:id="rId32" xr:uid="{3AE0A9E0-59DE-43A4-8826-2F24513C9DC0}"/>
+    <hyperlink ref="E43" r:id="rId33" xr:uid="{49AFF96A-B740-4608-8C2E-21323B47C9C2}"/>
     <hyperlink ref="E10" r:id="rId34" xr:uid="{C0FB9BAF-84EF-4DD5-9D9D-518057A3578D}"/>
     <hyperlink ref="E20" r:id="rId35" xr:uid="{71DF1FE6-30D0-4DDB-9694-622BA1BABC1E}"/>
     <hyperlink ref="E13" r:id="rId36" xr:uid="{5708A483-5768-4820-B95C-7B349DE18149}"/>
     <hyperlink ref="E19" r:id="rId37" xr:uid="{51A9F3EA-8818-43CF-B3C3-FB14FDD1A5C4}"/>
+    <hyperlink ref="E23" r:id="rId38" xr:uid="{D0D078FE-F1D9-432C-A5E6-F07E056E7DAB}"/>
+    <hyperlink ref="E37" r:id="rId39" xr:uid="{D73A2C14-4886-40B4-BE8E-80EF4C25C297}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
   <ignoredErrors>
-    <ignoredError sqref="AE42:AF42" formulaRange="1"/>
+    <ignoredError sqref="AE44:AH44 AJ44:AL44" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/minutes/CWE-CAPEC Working Group Members List.xlsx
+++ b/minutes/CWE-CAPEC Working Group Members List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://synopsys-my.sharepoint.com/personal/acron_synopsys_com/Documents/Documents/test/Security/REST API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{D8DE7BD1-A43D-F349-9115-672DF5E72D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D2C5323-D7FB-473D-B790-9D73BFDB5ECB}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{D8DE7BD1-A43D-F349-9115-672DF5E72D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B912B319-938E-46B2-8503-295A8C647949}"/>
   <bookViews>
-    <workbookView xWindow="14843" yWindow="0" windowWidth="13949" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="15" windowWidth="14190" windowHeight="15713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>#</t>
   </si>
@@ -168,15 +168,6 @@
     <t>REST</t>
   </si>
   <si>
-    <t>Altaz Valani</t>
-  </si>
-  <si>
-    <t>avalani@securitycompass.com</t>
-  </si>
-  <si>
-    <t>SecurityCompass</t>
-  </si>
-  <si>
     <t>Ramesh Ambastha</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>ramesh.ambastha@smartbear.com</t>
   </si>
   <si>
-    <t>stds dev, REST</t>
-  </si>
-  <si>
     <t>sec  verif, user</t>
   </si>
   <si>
@@ -378,15 +366,6 @@
     <t>OpenAPI, REST</t>
   </si>
   <si>
-    <t>Ferry Sutiono</t>
-  </si>
-  <si>
-    <t>Ferry.Sutiono@tensleyconsulting.com</t>
-  </si>
-  <si>
-    <t>Tensley Consulting</t>
-  </si>
-  <si>
     <t>William Duncan</t>
   </si>
   <si>
@@ -466,6 +445,15 @@
   </si>
   <si>
     <t>Army National Guard</t>
+  </si>
+  <si>
+    <t>Chimdi Azubuike</t>
+  </si>
+  <si>
+    <t>Thinkom</t>
+  </si>
+  <si>
+    <t>chimdi.azubuike@thinkom.com</t>
   </si>
 </sst>
 </file>
@@ -524,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,13 +563,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +634,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,10 +653,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="AL39" sqref="AL39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -936,13 +933,12 @@
     <col min="5" max="5" width="39.86328125" customWidth="1"/>
     <col min="6" max="6" width="34.86328125" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="28" width="11.73046875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="0.1328125" hidden="1" customWidth="1"/>
-    <col min="30" max="37" width="12.73046875" hidden="1" customWidth="1"/>
-    <col min="38" max="47" width="12.73046875" customWidth="1"/>
+    <col min="8" max="31" width="11.73046875" hidden="1" customWidth="1"/>
+    <col min="32" max="40" width="12.73046875" hidden="1" customWidth="1"/>
+    <col min="41" max="47" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1057,8 +1053,17 @@
       <c r="AL1" s="9">
         <v>45043</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM1" s="9">
+        <v>45099</v>
+      </c>
+      <c r="AN1" s="9">
+        <v>45113</v>
+      </c>
+      <c r="AO1" s="9">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1161,8 +1166,17 @@
       <c r="AL2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1170,16 +1184,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4">
@@ -1223,8 +1237,11 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1232,13 +1249,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="4"/>
@@ -1307,8 +1324,15 @@
       </c>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1316,71 +1340,66 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>106</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4">
         <v>1</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="AH5" s="4">
+        <v>1</v>
+      </c>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1388,80 +1407,89 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>112</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>1</v>
-      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4">
-        <v>1</v>
-      </c>
+      <c r="AH6" s="4"/>
       <c r="AI6" s="21"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -1469,13 +1497,11 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>1</v>
@@ -1487,51 +1513,70 @@
         <v>1</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
       <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="4"/>
+      <c r="T7" s="4">
+        <v>1</v>
+      </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
       <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="4">
+        <v>1</v>
+      </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="4">
+        <v>1</v>
+      </c>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="21"/>
+      <c r="AI7" s="21">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>92</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1539,11 +1584,13 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
         <v>1</v>
@@ -1554,7 +1601,9 @@
       <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
         <v>1</v>
@@ -1562,137 +1611,75 @@
       <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="4">
-        <v>1</v>
-      </c>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
+        <v>1</v>
+      </c>
       <c r="V8" s="4">
         <v>1</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="4">
+        <v>1</v>
+      </c>
       <c r="X8" s="4">
         <v>1</v>
       </c>
-      <c r="Y8" s="4"/>
+      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
       <c r="Z8" s="4">
         <v>1</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4">
         <v>1</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="21">
-        <v>1</v>
-      </c>
+      <c r="AH8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="21"/>
       <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AK8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="4"/>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="4"/>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1700,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -1747,8 +1734,11 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-    </row>
-    <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1756,13 +1746,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -1801,8 +1791,11 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1810,16 +1803,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4">
@@ -1901,8 +1894,15 @@
       </c>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -1951,8 +1951,11 @@
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1960,37 +1963,75 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="Y14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1</v>
+      </c>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
@@ -2001,8 +2042,11 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2010,16 +2054,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -2030,55 +2074,27 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4">
-        <v>1</v>
-      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
@@ -2089,8 +2105,11 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+    </row>
+    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2098,16 +2117,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -2115,13 +2134,17 @@
       <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
@@ -2130,7 +2153,9 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -2149,8 +2174,11 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+    </row>
+    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2158,45 +2186,29 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
+      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -2215,8 +2227,11 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-    </row>
-    <row r="18" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2224,49 +2239,58 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="4">
+        <v>1</v>
+      </c>
       <c r="AI18" s="21"/>
-      <c r="AJ18" s="4"/>
+      <c r="AJ18" s="4">
+        <v>1</v>
+      </c>
       <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-    </row>
-    <row r="19" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AL18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+    </row>
+    <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2274,55 +2298,50 @@
         <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="4">
-        <v>1</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
       <c r="AI19" s="21"/>
-      <c r="AJ19" s="4">
-        <v>1</v>
-      </c>
+      <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
-      <c r="AL19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2330,14 +2349,20 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2366,11 +2391,16 @@
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="21"/>
-      <c r="AJ20" s="4"/>
+      <c r="AJ20" s="4">
+        <v>1</v>
+      </c>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2378,16 +2408,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -2408,7 +2438,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="5"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -2420,221 +2450,269 @@
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="21"/>
-      <c r="AJ21" s="4">
-        <v>1</v>
-      </c>
+      <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+    </row>
+    <row r="22" spans="1:41" s="18" customFormat="1" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-    </row>
-    <row r="23" spans="1:38" s="18" customFormat="1" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16">
+      <c r="C22" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+    </row>
+    <row r="23" spans="1:41" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="R23" s="16">
+        <v>1</v>
+      </c>
+      <c r="S23" s="16">
+        <v>1</v>
+      </c>
+      <c r="T23" s="16">
+        <v>1</v>
+      </c>
+      <c r="U23" s="16">
+        <v>1</v>
+      </c>
+      <c r="V23" s="16">
+        <v>1</v>
+      </c>
+      <c r="W23" s="16">
+        <v>1</v>
+      </c>
+      <c r="X23" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16">
+        <v>1</v>
+      </c>
       <c r="AL23" s="16"/>
-    </row>
-    <row r="24" spans="1:38" ht="28.9" x14ac:dyDescent="0.5">
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="16"/>
+    </row>
+    <row r="24" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="L24" s="16">
-        <v>1</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
-        <v>1</v>
-      </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="16">
-        <v>1</v>
-      </c>
-      <c r="S24" s="16">
-        <v>1</v>
-      </c>
-      <c r="T24" s="16">
-        <v>1</v>
-      </c>
-      <c r="U24" s="16">
-        <v>1</v>
-      </c>
-      <c r="V24" s="16">
-        <v>1</v>
-      </c>
-      <c r="W24" s="16">
-        <v>1</v>
-      </c>
-      <c r="X24" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="24">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="16"/>
-    </row>
-    <row r="25" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="C24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+    </row>
+    <row r="25" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2642,13 +2720,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
@@ -2657,74 +2735,39 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="4">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4">
-        <v>1</v>
-      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="4">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4">
-        <v>1</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1</v>
-      </c>
-      <c r="V25" s="4">
-        <v>1</v>
-      </c>
-      <c r="W25" s="4">
-        <v>1</v>
-      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AE25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>1</v>
-      </c>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
       <c r="AI25" s="21"/>
-      <c r="AJ25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="4">
-        <v>1</v>
-      </c>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-    </row>
-    <row r="26" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+    </row>
+    <row r="26" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2732,13 +2775,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
@@ -2748,18 +2791,22 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="W26" s="4">
+        <v>1</v>
+      </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -2775,180 +2822,189 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-    </row>
-    <row r="27" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+    </row>
+    <row r="27" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="B27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>1</v>
+      </c>
       <c r="R27" s="4">
         <v>1</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="T27" s="4">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
       <c r="W27" s="4">
         <v>1</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-    </row>
-    <row r="28" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="X27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
-        <v>1</v>
-      </c>
-      <c r="T28" s="4">
-        <v>1</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1</v>
-      </c>
-      <c r="V28" s="4">
-        <v>1</v>
-      </c>
-      <c r="W28" s="4">
-        <v>1</v>
-      </c>
-      <c r="X28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+    </row>
+    <row r="29" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2956,19 +3012,17 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2999,8 +3053,11 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-    </row>
-    <row r="30" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+    </row>
+    <row r="30" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3008,18 +3065,22 @@
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -3049,36 +3110,51 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-    </row>
-    <row r="31" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+    </row>
+    <row r="31" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>9</v>
+      <c r="C31" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
       <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -3103,8 +3179,11 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-    </row>
-    <row r="32" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+    </row>
+    <row r="32" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3112,39 +3191,23 @@
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1</v>
-      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -3169,58 +3232,92 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-    </row>
-    <row r="33" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="4"/>
+      <c r="AO32" s="4"/>
+    </row>
+    <row r="33" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>120</v>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
+      <c r="AA33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>1</v>
+      </c>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
+      <c r="AD33" s="4">
+        <v>1</v>
+      </c>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
+      <c r="AF33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>1</v>
+      </c>
       <c r="AH33" s="4"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-    </row>
-    <row r="34" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3228,16 +3325,16 @@
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -3246,59 +3343,60 @@
         <v>1</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
       <c r="K34" s="4">
         <v>1</v>
       </c>
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4">
         <v>1</v>
       </c>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
+      <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4">
         <v>1</v>
       </c>
-      <c r="V34" s="4"/>
+      <c r="V34" s="4">
+        <v>1</v>
+      </c>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4">
         <v>1</v>
       </c>
-      <c r="AB34" s="4">
-        <v>1</v>
-      </c>
+      <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="4">
-        <v>1</v>
-      </c>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>1</v>
-      </c>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="21"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-    </row>
-    <row r="35" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+    </row>
+    <row r="35" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3306,16 +3404,16 @@
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -3323,10 +3421,10 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4"/>
       <c r="K35" s="4">
         <v>1</v>
       </c>
@@ -3342,39 +3440,80 @@
       <c r="O35" s="4">
         <v>1</v>
       </c>
-      <c r="P35" s="4"/>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
       <c r="Q35" s="4">
         <v>1</v>
       </c>
       <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1</v>
+      </c>
       <c r="U35" s="4">
         <v>1</v>
       </c>
       <c r="V35" s="4">
         <v>1</v>
       </c>
-      <c r="W35" s="4"/>
+      <c r="W35" s="4">
+        <v>1</v>
+      </c>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="Y35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>1</v>
+      </c>
       <c r="AA35" s="4">
         <v>1</v>
       </c>
-      <c r="AB35" s="4"/>
+      <c r="AB35" s="4">
+        <v>1</v>
+      </c>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-    </row>
-    <row r="36" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AD35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3382,107 +3521,56 @@
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4">
-        <v>1</v>
-      </c>
-      <c r="T36" s="4">
-        <v>1</v>
-      </c>
-      <c r="U36" s="4">
-        <v>1</v>
-      </c>
-      <c r="V36" s="4">
-        <v>1</v>
-      </c>
-      <c r="W36" s="4">
-        <v>1</v>
-      </c>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="4">
-        <v>1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
       <c r="AL36" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+    </row>
+    <row r="37" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3490,53 +3578,62 @@
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+    </row>
+    <row r="38" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3544,16 +3641,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -3561,30 +3658,58 @@
       <c r="H38" s="4">
         <v>1</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
       <c r="L38" s="4">
         <v>1</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="S38" s="4">
+        <v>1</v>
+      </c>
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
+      <c r="Y38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>1</v>
+      </c>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
@@ -3595,8 +3720,11 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-    </row>
-    <row r="39" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+    </row>
+    <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3604,75 +3732,41 @@
         <v>12</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="4">
         <v>1</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
       </c>
-      <c r="L39" s="4">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4">
-        <v>1</v>
-      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="O39" s="4">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="4">
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4">
-        <v>1</v>
-      </c>
-      <c r="V39" s="4">
-        <v>1</v>
-      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="4">
-        <v>1</v>
-      </c>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
@@ -3683,8 +3777,11 @@
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-    </row>
-    <row r="40" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+    </row>
+    <row r="40" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3692,53 +3789,118 @@
         <v>12</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
       <c r="J40" s="4">
         <v>1</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4">
+        <v>1</v>
+      </c>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1</v>
+      </c>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
+      <c r="Z40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>1</v>
+      </c>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="21"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-    </row>
-    <row r="41" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AG40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3746,32 +3908,20 @@
         <v>12</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="4">
         <v>1</v>
       </c>
@@ -3793,9 +3943,7 @@
       <c r="R41" s="4">
         <v>1</v>
       </c>
-      <c r="S41" s="4">
-        <v>1</v>
-      </c>
+      <c r="S41" s="4"/>
       <c r="T41" s="4">
         <v>1</v>
       </c>
@@ -3818,26 +3966,18 @@
       <c r="AA41" s="4">
         <v>1</v>
       </c>
-      <c r="AB41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="4">
-        <v>1</v>
-      </c>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
       <c r="AD41" s="4">
         <v>1</v>
       </c>
-      <c r="AE41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="23">
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="21">
         <v>1</v>
       </c>
       <c r="AJ41" s="4">
@@ -3849,8 +3989,15 @@
       <c r="AL41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AM41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3858,13 +4005,13 @@
         <v>12</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
@@ -3872,211 +4019,135 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
-      <c r="O42" s="4">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>1</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1</v>
-      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="4">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4">
-        <v>1</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1</v>
-      </c>
-      <c r="X42" s="4">
-        <v>1</v>
-      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="4">
-        <v>1</v>
-      </c>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="4">
-        <v>1</v>
-      </c>
+      <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="4">
-        <v>1</v>
-      </c>
+      <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-    </row>
-    <row r="44" spans="1:38" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="AD44" s="1">
-        <f t="shared" ref="AD44:AK44" si="0">SUM(AD2:AD43)</f>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="4"/>
+      <c r="AO42" s="4"/>
+    </row>
+    <row r="43" spans="1:41" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="AD43" s="1">
+        <f t="shared" ref="AD43:AO43" si="0">SUM(AD2:AD42)</f>
         <v>11</v>
       </c>
-      <c r="AE44" s="1">
+      <c r="AE43" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AF43" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AG44" s="1">
+      <c r="AG43" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AH44" s="1">
+      <c r="AH43" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AI44" s="20">
+      <c r="AI43" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ44" s="1">
+      <c r="AJ43" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AK43" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AL44" s="1">
-        <f t="shared" ref="AL44" si="1">SUM(AL2:AL43)</f>
+      <c r="AL43" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="AM43" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AN43" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AO43" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N40">
-    <sortCondition ref="C5:C40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N38">
+    <sortCondition ref="C5:C38"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3A40E9B3-975B-4A22-A01A-2929B76D9DB0}"/>
-    <hyperlink ref="E31" r:id="rId2" xr:uid="{B8E8CEB7-639C-464D-B4BD-0FD1AAC91DC3}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{8E0DCCB4-2EB9-4690-957A-8942839B1AC3}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{64B3218C-D6F9-4BFF-9464-02F447006117}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{761D9F86-8A32-4995-A776-BEF9A380F107}"/>
-    <hyperlink ref="E26" r:id="rId6" xr:uid="{E9BA05BC-218A-47BB-8865-F740205FF636}"/>
-    <hyperlink ref="E40" r:id="rId7" xr:uid="{9BFC7C3E-506E-45CF-BF0E-1F115EAC1665}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{1508CA9E-476E-4BCF-BEC8-25109D3A4E4D}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{6CE77D11-7C33-47A9-9779-69919C645B27}"/>
-    <hyperlink ref="E15" r:id="rId10" xr:uid="{DA9AF26B-B227-451E-9B5C-19F1C480346E}"/>
-    <hyperlink ref="E35" r:id="rId11" xr:uid="{1B4E1BCC-B43B-44E2-A68E-473A0F4E43DE}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{F37D13E7-083E-4631-911C-3143474D3CA0}"/>
-    <hyperlink ref="E5" r:id="rId13" xr:uid="{EE3A77A0-650D-4EE8-AC9D-C56FE8464EA7}"/>
-    <hyperlink ref="E24" r:id="rId14" xr:uid="{8932E0F1-FF9B-47A5-983F-9F7F7191C3D9}"/>
-    <hyperlink ref="E11" r:id="rId15" xr:uid="{F5F6BB57-66E4-4759-A8CF-E2462AE3990C}"/>
-    <hyperlink ref="E7" r:id="rId16" xr:uid="{EB20DC93-5C05-4FA8-931F-8E3CC3171948}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{35540A37-995B-4579-8938-A991261D3FDC}"/>
-    <hyperlink ref="E39" r:id="rId18" display="mailto:stas@attackforge.com" xr:uid="{687048E8-5654-4BF2-B4FA-C7015AB50BA5}"/>
-    <hyperlink ref="E29" r:id="rId19" xr:uid="{F3E5BD5B-1A7E-46AF-8F87-45C9A86C610D}"/>
-    <hyperlink ref="E28" r:id="rId20" display="mailto:lmalinowski@mitre.org" xr:uid="{AE0F414D-B053-44A9-9991-78ADD236E9D5}"/>
-    <hyperlink ref="E12" r:id="rId21" display="mailto:drothenberg@mitre.org" xr:uid="{507530C1-D5FD-4724-9331-3C553C3BB31B}"/>
-    <hyperlink ref="E36" r:id="rId22" display="mailto:rpiazza@mitre.org" xr:uid="{25BD7ADF-ED49-46EA-A3BC-63168D5345C3}"/>
-    <hyperlink ref="E3" r:id="rId23" display="mailto:asummers@mitre.org" xr:uid="{E4AD2FCF-427B-4508-A27A-3DF923D61683}"/>
-    <hyperlink ref="E38" r:id="rId24" xr:uid="{00E620E7-FF75-4373-BFE7-3DE357B99888}"/>
-    <hyperlink ref="E32" r:id="rId25" xr:uid="{60AD0D9D-119C-4871-885C-68E87FC4164B}"/>
-    <hyperlink ref="E41" r:id="rId26" display="mailto:coley@mitre.org" xr:uid="{D03DFBD7-E852-46D4-A96A-8614CB454311}"/>
-    <hyperlink ref="E25" r:id="rId27" xr:uid="{6A63D541-7701-47BB-B1A1-412C969B71AE}"/>
-    <hyperlink ref="E4" r:id="rId28" xr:uid="{519D406F-460A-4210-A2B9-4F7BFF5603D6}"/>
-    <hyperlink ref="E27" r:id="rId29" xr:uid="{33684171-772E-4132-9397-9121ADB4BC86}"/>
-    <hyperlink ref="E6" r:id="rId30" xr:uid="{F59E2981-E1D2-4146-B146-AEF53B303641}"/>
-    <hyperlink ref="E14" r:id="rId31" xr:uid="{17CED5BC-AC23-4CDD-903F-CBEF0B05C0A1}"/>
-    <hyperlink ref="E42" r:id="rId32" xr:uid="{3AE0A9E0-59DE-43A4-8826-2F24513C9DC0}"/>
-    <hyperlink ref="E43" r:id="rId33" xr:uid="{49AFF96A-B740-4608-8C2E-21323B47C9C2}"/>
-    <hyperlink ref="E10" r:id="rId34" xr:uid="{C0FB9BAF-84EF-4DD5-9D9D-518057A3578D}"/>
-    <hyperlink ref="E20" r:id="rId35" xr:uid="{71DF1FE6-30D0-4DDB-9694-622BA1BABC1E}"/>
-    <hyperlink ref="E13" r:id="rId36" xr:uid="{5708A483-5768-4820-B95C-7B349DE18149}"/>
-    <hyperlink ref="E19" r:id="rId37" xr:uid="{51A9F3EA-8818-43CF-B3C3-FB14FDD1A5C4}"/>
-    <hyperlink ref="E23" r:id="rId38" xr:uid="{D0D078FE-F1D9-432C-A5E6-F07E056E7DAB}"/>
-    <hyperlink ref="E37" r:id="rId39" xr:uid="{D73A2C14-4886-40B4-BE8E-80EF4C25C297}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{B8E8CEB7-639C-464D-B4BD-0FD1AAC91DC3}"/>
+    <hyperlink ref="E20" r:id="rId3" xr:uid="{8E0DCCB4-2EB9-4690-957A-8942839B1AC3}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{64B3218C-D6F9-4BFF-9464-02F447006117}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{761D9F86-8A32-4995-A776-BEF9A380F107}"/>
+    <hyperlink ref="E25" r:id="rId6" xr:uid="{E9BA05BC-218A-47BB-8865-F740205FF636}"/>
+    <hyperlink ref="E39" r:id="rId7" xr:uid="{9BFC7C3E-506E-45CF-BF0E-1F115EAC1665}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{1508CA9E-476E-4BCF-BEC8-25109D3A4E4D}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{6CE77D11-7C33-47A9-9779-69919C645B27}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{DA9AF26B-B227-451E-9B5C-19F1C480346E}"/>
+    <hyperlink ref="E34" r:id="rId11" xr:uid="{1B4E1BCC-B43B-44E2-A68E-473A0F4E43DE}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{F37D13E7-083E-4631-911C-3143474D3CA0}"/>
+    <hyperlink ref="E23" r:id="rId13" xr:uid="{8932E0F1-FF9B-47A5-983F-9F7F7191C3D9}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{F5F6BB57-66E4-4759-A8CF-E2462AE3990C}"/>
+    <hyperlink ref="E6" r:id="rId15" xr:uid="{EB20DC93-5C05-4FA8-931F-8E3CC3171948}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{35540A37-995B-4579-8938-A991261D3FDC}"/>
+    <hyperlink ref="E38" r:id="rId17" display="mailto:stas@attackforge.com" xr:uid="{687048E8-5654-4BF2-B4FA-C7015AB50BA5}"/>
+    <hyperlink ref="E28" r:id="rId18" xr:uid="{F3E5BD5B-1A7E-46AF-8F87-45C9A86C610D}"/>
+    <hyperlink ref="E27" r:id="rId19" display="mailto:lmalinowski@mitre.org" xr:uid="{AE0F414D-B053-44A9-9991-78ADD236E9D5}"/>
+    <hyperlink ref="E12" r:id="rId20" display="mailto:drothenberg@mitre.org" xr:uid="{507530C1-D5FD-4724-9331-3C553C3BB31B}"/>
+    <hyperlink ref="E35" r:id="rId21" display="mailto:rpiazza@mitre.org" xr:uid="{25BD7ADF-ED49-46EA-A3BC-63168D5345C3}"/>
+    <hyperlink ref="E3" r:id="rId22" display="mailto:asummers@mitre.org" xr:uid="{E4AD2FCF-427B-4508-A27A-3DF923D61683}"/>
+    <hyperlink ref="E37" r:id="rId23" xr:uid="{00E620E7-FF75-4373-BFE7-3DE357B99888}"/>
+    <hyperlink ref="E31" r:id="rId24" xr:uid="{60AD0D9D-119C-4871-885C-68E87FC4164B}"/>
+    <hyperlink ref="E40" r:id="rId25" display="mailto:coley@mitre.org" xr:uid="{D03DFBD7-E852-46D4-A96A-8614CB454311}"/>
+    <hyperlink ref="E24" r:id="rId26" xr:uid="{6A63D541-7701-47BB-B1A1-412C969B71AE}"/>
+    <hyperlink ref="E4" r:id="rId27" xr:uid="{519D406F-460A-4210-A2B9-4F7BFF5603D6}"/>
+    <hyperlink ref="E26" r:id="rId28" xr:uid="{33684171-772E-4132-9397-9121ADB4BC86}"/>
+    <hyperlink ref="E5" r:id="rId29" xr:uid="{F59E2981-E1D2-4146-B146-AEF53B303641}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{3AE0A9E0-59DE-43A4-8826-2F24513C9DC0}"/>
+    <hyperlink ref="E42" r:id="rId31" xr:uid="{49AFF96A-B740-4608-8C2E-21323B47C9C2}"/>
+    <hyperlink ref="E10" r:id="rId32" xr:uid="{C0FB9BAF-84EF-4DD5-9D9D-518057A3578D}"/>
+    <hyperlink ref="E19" r:id="rId33" xr:uid="{71DF1FE6-30D0-4DDB-9694-622BA1BABC1E}"/>
+    <hyperlink ref="E13" r:id="rId34" xr:uid="{5708A483-5768-4820-B95C-7B349DE18149}"/>
+    <hyperlink ref="E18" r:id="rId35" xr:uid="{51A9F3EA-8818-43CF-B3C3-FB14FDD1A5C4}"/>
+    <hyperlink ref="E22" r:id="rId36" xr:uid="{D0D078FE-F1D9-432C-A5E6-F07E056E7DAB}"/>
+    <hyperlink ref="E36" r:id="rId37" xr:uid="{D73A2C14-4886-40B4-BE8E-80EF4C25C297}"/>
+    <hyperlink ref="E9" r:id="rId38" xr:uid="{2706C2A9-C798-4073-AC2E-8AD833F44DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
   <ignoredErrors>
-    <ignoredError sqref="AE44:AH44 AJ44:AL44" formulaRange="1"/>
+    <ignoredError sqref="AO43" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
